--- a/biology/Zoologie/Carangidae/Carangidae.xlsx
+++ b/biology/Zoologie/Carangidae/Carangidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Carangidae sont une famille des poissons téléostéens (Teleostei), de l'ordre des Perciformes.
 </t>
@@ -511,11 +523,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Caranx, qui viendrait du français « carangue » nom donné à ce poisson dans les Caraïbes en 1836[1].
-Mais le nom Caranx a été donné beaucoup plus tôt par le naturaliste français Philibert Commerson et officialisé par Bernard de Lacépède en 1801 dans son Histoire naturelle des poissons (Tome 3, Paris, 1801-1802), et viendrait du grec ancien καρα / kara, tête, en référence à  « la proéminence que présente leur tête, de la force de cette partie, de l'éclat dont elle brille »[2].
-Cependant la première occurrence de ce nom de poisson apparait en 1726 dans un rapport concernant l'Océan Indien :  Relation de l'Île Rodrigues[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Caranx, qui viendrait du français « carangue » nom donné à ce poisson dans les Caraïbes en 1836.
+Mais le nom Caranx a été donné beaucoup plus tôt par le naturaliste français Philibert Commerson et officialisé par Bernard de Lacépède en 1801 dans son Histoire naturelle des poissons (Tome 3, Paris, 1801-1802), et viendrait du grec ancien καρα / kara, tête, en référence à  « la proéminence que présente leur tête, de la force de cette partie, de l'éclat dont elle brille ».
+Cependant la première occurrence de ce nom de poisson apparait en 1726 dans un rapport concernant l'Océan Indien :  Relation de l'Île Rodrigues,.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les carangues sont pour la plupart d'assez gros poissons tropicaux prédateurs, puissants et rapides[4]. Leur corps est en général assez comprimé latéralement, mais la forme du corps peut être très originale chez certaines espèces. Les écailles sont le plus souvent petites et cycloïdes et modifiées le long de la ligne latérale en scutelles pointues. Certaines espèces portent des nageoires extranuméraires derrière les nageoires dorsale et anale (un peu comme chez les thons et autres Scombridae). Ces espèces ont deux nageoires dorsales, l'antérieure soutenue par 3 à 9 épines et la postérieure par une épine et 18-37 rayons mous. La nageoire anale porte généralement 3 épines, les deux premières étant séparées du reste et 15 à 31 rayons mous. La nageoire caudale est très fourchue, et le pédoncule caudal étroit. Une espèce (Parona signata) est dépourvue de nageoires pelviennes. Les vertèbres sont au nombre de 24 à 27 (plus souvent 24)[4].
-Ce sont des poissons marins, même si certaines espèces peuvent parfois se retrouver en estuaire ; on trouve des membres de cette famille dans les trois principaux bassins océaniques, où ils fréquentent les récifs aussi bien que le milieu pélagique. Il s'agit d'une des plus importantes familles de poissons marins tropicaux et la plupart des espèces sont pêchées commercialement (les plus grosses faisant l'objet de pêche sportive)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les carangues sont pour la plupart d'assez gros poissons tropicaux prédateurs, puissants et rapides. Leur corps est en général assez comprimé latéralement, mais la forme du corps peut être très originale chez certaines espèces. Les écailles sont le plus souvent petites et cycloïdes et modifiées le long de la ligne latérale en scutelles pointues. Certaines espèces portent des nageoires extranuméraires derrière les nageoires dorsale et anale (un peu comme chez les thons et autres Scombridae). Ces espèces ont deux nageoires dorsales, l'antérieure soutenue par 3 à 9 épines et la postérieure par une épine et 18-37 rayons mous. La nageoire anale porte généralement 3 épines, les deux premières étant séparées du reste et 15 à 31 rayons mous. La nageoire caudale est très fourchue, et le pédoncule caudal étroit. Une espèce (Parona signata) est dépourvue de nageoires pelviennes. Les vertèbres sont au nombre de 24 à 27 (plus souvent 24).
+Ce sont des poissons marins, même si certaines espèces peuvent parfois se retrouver en estuaire ; on trouve des membres de cette famille dans les trois principaux bassins océaniques, où ils fréquentent les récifs aussi bien que le milieu pélagique. Il s'agit d'une des plus importantes familles de poissons marins tropicaux et la plupart des espèces sont pêchées commercialement (les plus grosses faisant l'objet de pêche sportive).
 </t>
         </is>
       </c>
@@ -576,23 +592,25 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Carangidés est subdivisée en sous-familles et genres suivants[5],[6] :
-Sous-famille Trachinotinae Gill, 1861[7]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Carangidés est subdivisée en sous-familles et genres suivants, :
+Sous-famille Trachinotinae Gill, 1861
 genre Lichia Cuvier, 1816
 genre Trachinotus Lacepède, 1801
-Sous-famille Scomberoidinae Gill, 1890[7]
+Sous-famille Scomberoidinae Gill, 1890
 genre Oligoplites Gill, 1863
 genre Parona Berg, 1895
 genre Scomberoides Lacepède, 1801
-Sous-famille Naucratinae Bleeker, 1859[7]
+Sous-famille Naucratinae Bleeker, 1859
 genre Campogramma Regan, 1903
 genre Elagatis Bennett, 1840
 genre Naucrates Rafinesque, 1810
 genre Seriola Cuvier, 1816
 genre Seriolina Wakiya, 1924
-Sous-famille Caranginae Rafinesque, 1815[7]
+Sous-famille Caranginae Rafinesque, 1815
 genre Alectis Rafinesque, 1815
 genre Alepes Swainson, 1839
 genre Atropus
@@ -616,7 +634,7 @@
 genre Trachurus Rafinesque, 1810
 genre Ulua Jordan &amp; Snyder, 1908
 genre Uraspis Bleeker, 1855
-Selon Paleobiology Database                   (7 mars 2019)[9] :
+Selon Paleobiology Database                   (7 mars 2019) :
 genre † Ceratoichthys Blot, 1969
 genre † Eastmanalepes Bannikov, 1984
 			Alectis ciliaris
